--- a/find_diff/diff.xlsx
+++ b/find_diff/diff.xlsx
@@ -1,27 +1,652 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7975827E-D0D3-4D10-8506-D4ADDD9AFF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="196">
+  <si>
+    <t>seamless workout bra</t>
+  </si>
+  <si>
+    <t>womens gym clothes</t>
+  </si>
+  <si>
+    <t>purple clothing for women</t>
+  </si>
+  <si>
+    <t>beginner bras for girls</t>
+  </si>
+  <si>
+    <t>big and tall gym clothing</t>
+  </si>
+  <si>
+    <t>leggings set</t>
+  </si>
+  <si>
+    <t>sexy clothes for women for sex</t>
+  </si>
+  <si>
+    <t>high waisted jeggings for women</t>
+  </si>
+  <si>
+    <t>fishnet sports bra</t>
+  </si>
+  <si>
+    <t>tennis ball return trainer</t>
+  </si>
+  <si>
+    <t>studio sports bra</t>
+  </si>
+  <si>
+    <t>waisted trainers</t>
+  </si>
+  <si>
+    <t>women gym clothes set</t>
+  </si>
+  <si>
+    <t>womens joggers high waisted</t>
+  </si>
+  <si>
+    <t>high waisted fishnet tights</t>
+  </si>
+  <si>
+    <t>beginner sports bra for girls</t>
+  </si>
+  <si>
+    <t>high waisted jeans for women stretchy</t>
+  </si>
+  <si>
+    <t>90 nylon 10 spandex leggings</t>
+  </si>
+  <si>
+    <t>belly dance pants for girls</t>
+  </si>
+  <si>
+    <t>sexy high waisted jeans for women</t>
+  </si>
+  <si>
+    <t>tennis return trainer</t>
+  </si>
+  <si>
+    <t>sport bra</t>
+  </si>
+  <si>
+    <t>seamless bra</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>girls gym sets</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>jeans for women high waisted stretch</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>gym leggings</t>
+  </si>
+  <si>
+    <t>yoga bra</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>workout bra</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>denim leggings high waisted</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>fishnet leggings</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>high waisted lingerie</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>sport bra set</t>
+  </si>
+  <si>
+    <t>workout clothe</t>
+  </si>
+  <si>
+    <t>bra set</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>yoga workout set</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>gym bra</t>
+  </si>
+  <si>
+    <t>bras for women</t>
+  </si>
+  <si>
+    <t>gym set</t>
+  </si>
+  <si>
+    <t>seamless bra set</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>purple bra</t>
+  </si>
+  <si>
+    <t>purple legging</t>
+  </si>
+  <si>
+    <t>high waisted legging</t>
+  </si>
+  <si>
+    <t>high waisted</t>
+  </si>
+  <si>
+    <t>workout clothes for women sets</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>legging bra set</t>
+  </si>
+  <si>
+    <t>yoga sport</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>high waisted yoga</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>yoga sport bra</t>
+  </si>
+  <si>
+    <t>high waisted workout legging</t>
+  </si>
+  <si>
+    <t>seamless legging</t>
+  </si>
+  <si>
+    <t>yoga set purple</t>
+  </si>
+  <si>
+    <t>seamless workout</t>
+  </si>
+  <si>
+    <t>gym clothes for women sets</t>
+  </si>
+  <si>
+    <t>purple sport bra</t>
+  </si>
+  <si>
+    <t>workout sport bra</t>
+  </si>
+  <si>
+    <t>seamless yoga bra</t>
+  </si>
+  <si>
+    <t>seamless sport bra</t>
+  </si>
+  <si>
+    <t>seamless yoga</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>yoga legging set</t>
+  </si>
+  <si>
+    <t>high waisted legging set</t>
+  </si>
+  <si>
+    <t>yoga bra set</t>
+  </si>
+  <si>
+    <t>clothe bra</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>high waisted yoga legging</t>
+  </si>
+  <si>
+    <t>purple clothe</t>
+  </si>
+  <si>
+    <t>workout clothe set</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>legging sport bra set</t>
+  </si>
+  <si>
+    <t>high sport bra</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>high waisted workout</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>high waisted gym legging</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>high waisted seamless legging</t>
+  </si>
+  <si>
+    <t>yoga gym</t>
+  </si>
+  <si>
+    <t>n set</t>
+  </si>
+  <si>
+    <t>ready set</t>
+  </si>
+  <si>
+    <t>purple yoga</t>
+  </si>
+  <si>
+    <t>purple workout</t>
+  </si>
+  <si>
+    <t>gym sport bra</t>
+  </si>
+  <si>
+    <t>purple set</t>
+  </si>
+  <si>
+    <t>high waisted set</t>
+  </si>
+  <si>
+    <t>workout legging set</t>
+  </si>
+  <si>
+    <t>purple workout set</t>
+  </si>
+  <si>
+    <t>high waisted workout set</t>
+  </si>
+  <si>
+    <t>high bra</t>
+  </si>
+  <si>
+    <t>high n</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>purple high waisted legging</t>
+  </si>
+  <si>
+    <t>bra legging workout set</t>
+  </si>
+  <si>
+    <t>purple workout legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>seamless workout yoga bra</t>
+  </si>
+  <si>
+    <t>yoga legging sport bra set</t>
+  </si>
+  <si>
+    <t>seamless workout clothe</t>
+  </si>
+  <si>
+    <t>sport yoga legging</t>
+  </si>
+  <si>
+    <t>high waisted sport legging</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>seamless high waisted workout legging</t>
+  </si>
+  <si>
+    <t>legging bra</t>
+  </si>
+  <si>
+    <t>seamless gym legging</t>
+  </si>
+  <si>
+    <t>workout legging sport bra set</t>
+  </si>
+  <si>
+    <t>apparel bra</t>
+  </si>
+  <si>
+    <t>high yoga legging</t>
+  </si>
+  <si>
+    <t>sport bra legging</t>
+  </si>
+  <si>
+    <t>yoga workout clothe</t>
+  </si>
+  <si>
+    <t>gym clothe set</t>
+  </si>
+  <si>
+    <t>yoga clothe set</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>seamless gym set</t>
+  </si>
+  <si>
+    <t>yoga bra legging set</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>womens yoga leggings high waisted</t>
+  </si>
+  <si>
+    <t>workout sets for women clothes</t>
+  </si>
+  <si>
+    <t>basketball compression pants with pads</t>
+  </si>
+  <si>
+    <t>seamless leggings for girls</t>
+  </si>
+  <si>
+    <t>spandex sweatsuit women</t>
+  </si>
+  <si>
+    <t>dark purple leggings for women</t>
+  </si>
+  <si>
+    <t>trainer bras for girls</t>
+  </si>
+  <si>
+    <t>high waisted workout leggings for women</t>
+  </si>
+  <si>
+    <t>women workout sets clothes</t>
+  </si>
+  <si>
+    <t>nylon leggings</t>
+  </si>
+  <si>
+    <t>beginner bra</t>
+  </si>
+  <si>
+    <t>womens workout set</t>
+  </si>
+  <si>
+    <t>leggings for basketball</t>
+  </si>
+  <si>
+    <t>workout leggings for women</t>
+  </si>
+  <si>
+    <t>sports leggings women</t>
+  </si>
+  <si>
+    <t>seamless sports bra</t>
+  </si>
+  <si>
+    <t>seamless workout leggings</t>
+  </si>
+  <si>
+    <t>gym leggings for women</t>
+  </si>
+  <si>
+    <t>sports leggings for women</t>
+  </si>
+  <si>
+    <t>womens workout sports bra</t>
+  </si>
+  <si>
+    <t>high waisted workout leggings for womens</t>
+  </si>
+  <si>
+    <t>fishnet sweaters for women</t>
+  </si>
+  <si>
+    <t>leggings with holes</t>
+  </si>
+  <si>
+    <t>workout gym clothes women</t>
+  </si>
+  <si>
+    <t>athletic seamless underwear women</t>
+  </si>
+  <si>
+    <t>dance leggings for girls</t>
+  </si>
+  <si>
+    <t>sporty sexy lingerie</t>
+  </si>
+  <si>
+    <t>female workout clothes</t>
+  </si>
+  <si>
+    <t>athletic underwear women</t>
+  </si>
+  <si>
+    <t>basketball leggings for women</t>
+  </si>
+  <si>
+    <t>gym clothes women set</t>
+  </si>
+  <si>
+    <t>work out sets</t>
+  </si>
+  <si>
+    <t>womens leggings workout high waisted</t>
+  </si>
+  <si>
+    <t>womens sports bra set</t>
+  </si>
+  <si>
+    <t>sports bras set</t>
+  </si>
+  <si>
+    <t>club sets for women clothing</t>
+  </si>
+  <si>
+    <t>high waisted gym leggings for women</t>
+  </si>
+  <si>
+    <t>workout clothing sets</t>
+  </si>
+  <si>
+    <t>sports bra set</t>
+  </si>
+  <si>
+    <t>womens workout clothing</t>
+  </si>
+  <si>
+    <t>womens purple sweatsuit</t>
+  </si>
+  <si>
+    <t>work leggings for women</t>
+  </si>
+  <si>
+    <t>purple jeans</t>
+  </si>
+  <si>
+    <t>high waisted jeans</t>
+  </si>
+  <si>
+    <t>workout clothes for women gym</t>
+  </si>
+  <si>
+    <t>basketball legging</t>
+  </si>
+  <si>
+    <t>high waisted dance leggings for women</t>
+  </si>
+  <si>
+    <t>purple leggings</t>
+  </si>
+  <si>
+    <t>workout tights for women</t>
+  </si>
+  <si>
+    <t>purple skinny jeans</t>
+  </si>
+  <si>
+    <t>clothing sets for women</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>90 styles clothing for women</t>
+  </si>
+  <si>
+    <t>basketball sweatsuit</t>
+  </si>
+  <si>
+    <t>womens sports set</t>
+  </si>
+  <si>
+    <t>belly dance bra</t>
+  </si>
+  <si>
+    <t>yoga clothes for women</t>
+  </si>
+  <si>
+    <t>yoga sets for women</t>
+  </si>
+  <si>
+    <t>girls athletic sports bras</t>
+  </si>
+  <si>
+    <t>3 pack leggings for women</t>
+  </si>
+  <si>
+    <t>basketball leggings with pads</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +665,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{538BBFF1-998C-41FB-8B86-97A231F98390}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{526193CC-1E79-4A53-86C8-37D0F688C315}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +789,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +1033,2031 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B263" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B264" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B265" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B266" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B267" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B268" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B269" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B271" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B272" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B273" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B274" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B275" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B276" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B277" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B279" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B280" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>